--- a/CloudMonitor5G-2.0/src/main/resources/templates/2.异常事件分析.xlsx
+++ b/CloudMonitor5G-2.0/src/main/resources/templates/2.异常事件分析.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6900"/>
@@ -179,7 +179,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -295,12 +295,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -361,7 +357,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -396,7 +392,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -608,7 +604,7 @@
   <dimension ref="A1:AA5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="E1" sqref="E1:AA1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -870,9 +866,8 @@
       <c r="AA5" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:AA1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
